--- a/Kmer/output/select-pheno-20220522.xlsx
+++ b/Kmer/output/select-pheno-20220522.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wendy/Documents/CADVIP/Kmer/output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ABC66A2-40B4-0B40-B8E3-79EA459ADB1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF683A35-492D-4E40-B8C9-0104C3AB7A54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1580" yWindow="660" windowWidth="21580" windowHeight="12760" xr2:uid="{519B33A3-9A9A-4143-BEDE-42514FEC41F0}"/>
+    <workbookView xWindow="1580" yWindow="660" windowWidth="21580" windowHeight="12760" activeTab="1" xr2:uid="{519B33A3-9A9A-4143-BEDE-42514FEC41F0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -377,15 +378,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -700,471 +701,563 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8941B2D5-FD5B-9E45-8C3F-715B4C14F093}">
-  <dimension ref="A1:G42"/>
+  <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="30.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7">
+        <v>2.2E-16</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="6"/>
+      <c r="B4" s="7"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="6"/>
+      <c r="B5" s="7"/>
+    </row>
+    <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B7" s="7"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B8" s="7"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="6"/>
+      <c r="B9" s="7"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="6"/>
+      <c r="B10" s="7"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="6"/>
+      <c r="B11" s="7"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="6"/>
+      <c r="B12" s="7"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="6"/>
+      <c r="B13" s="7"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="6"/>
+      <c r="B14" s="7"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="6"/>
+      <c r="B15" s="7"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="6"/>
+      <c r="B16" s="7"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="6"/>
+      <c r="B17" s="7"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="6"/>
+      <c r="B18" s="7"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="6"/>
+      <c r="B19" s="7"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="6"/>
+      <c r="B20" s="7"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="6"/>
+      <c r="B21" s="7"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="6"/>
+      <c r="B22" s="7"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="6"/>
+      <c r="B23" s="7"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="6"/>
+      <c r="B24" s="7"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="6"/>
+      <c r="B25" s="7"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="6"/>
+      <c r="B26" s="7"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="6"/>
+      <c r="B27" s="7"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="6"/>
+      <c r="B28" s="7"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="6"/>
+      <c r="B29" s="7"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="6"/>
+      <c r="B30" s="7"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="6"/>
+      <c r="B31" s="7"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="6"/>
+      <c r="B32" s="7"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="6"/>
+      <c r="B33" s="7"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="6"/>
+      <c r="B34" s="7"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="6"/>
+      <c r="B35" s="7"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="6"/>
+      <c r="B36" s="7"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="6"/>
+      <c r="B37" s="7"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="6"/>
+      <c r="B38" s="7"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="6"/>
+      <c r="B39" s="7"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="6"/>
+      <c r="B40" s="7"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="6"/>
+      <c r="B41" s="7"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B42" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70D82A5D-785D-9146-A7FB-63251DC9D6AA}">
+  <dimension ref="A1:B41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>1</v>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="4">
-        <v>2.2E-16</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="3"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="7" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="3"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="B4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="4"/>
-    </row>
-    <row r="5" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="3"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="B5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D5" s="4"/>
-      <c r="G5" s="6" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="3"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="B6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D6" s="4"/>
-      <c r="G6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="3"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="B7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="4"/>
-      <c r="G7" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="3"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="B8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D8" s="4"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="3"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="B9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D9" s="4"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="3"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="B10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D10" s="4"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="3"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="B11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D11" s="4"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="3"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="B12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D12" s="4"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="3"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="B13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D13" s="4"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="3"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="B14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D14" s="4"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="3"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="B15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D15" s="4"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="3"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="B16" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D16" s="4"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="3"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="B17" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D17" s="4"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="3"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="B18" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D18" s="4"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="3"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="B19" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D19" s="4"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="3"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="B20" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D20" s="4"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="3"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B21" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C21" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D21" s="4"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="3"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="B22" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D22" s="4"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="3"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="B23" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D23" s="4"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="3"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="B24" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D24" s="4"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="3"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="B25" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C25" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D25" s="4"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="3"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="B26" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C26" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D26" s="4"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="3"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="B27" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C27" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D27" s="4"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="3"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="B28" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C28" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D28" s="4"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="3"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="B29" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C29" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D29" s="4"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="3"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="B30" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C30" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D30" s="4"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="3"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="B31" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C31" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D31" s="4"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="3"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="B32" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C32" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D32" s="4"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="3"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="B33" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C33" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D33" s="4"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="3"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="B34" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C34" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D34" s="4"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="3"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="B35" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C35" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D35" s="4"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="3"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="B36" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C36" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D36" s="4"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="3"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="B37" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C37" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D37" s="4"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="3"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="B38" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C38" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D38" s="4"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="3"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="B39" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C39" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D39" s="4"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="3"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="B40" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C40" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D40" s="4"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="3"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="B41" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C41" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D41" s="4"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D42" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A41"/>
-    <mergeCell ref="D2:D41"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Kmer/output/select-pheno-20220522.xlsx
+++ b/Kmer/output/select-pheno-20220522.xlsx
@@ -8,13 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wendy/Documents/CADVIP/Kmer/output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF683A35-492D-4E40-B8C9-0104C3AB7A54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5653640-2768-B24F-830D-4F6DF408F643}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1580" yWindow="660" windowWidth="21580" windowHeight="12760" activeTab="1" xr2:uid="{519B33A3-9A9A-4143-BEDE-42514FEC41F0}"/>
+    <workbookView xWindow="4100" yWindow="3620" windowWidth="24120" windowHeight="13800" firstSheet="1" activeTab="2" xr2:uid="{519B33A3-9A9A-4143-BEDE-42514FEC41F0}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="unpaired results" sheetId="1" r:id="rId1"/>
+    <sheet name="Sample_AUC_color_y123" sheetId="2" r:id="rId2"/>
+    <sheet name="Sample_indent_width_mean_y2" sheetId="3" r:id="rId3"/>
+    <sheet name="Sample_indent_depth_mean_y2" sheetId="4" r:id="rId4"/>
+    <sheet name="Sample_mvd" sheetId="5" r:id="rId5"/>
+    <sheet name="dQTL_color" sheetId="8" r:id="rId6"/>
+    <sheet name="dQTL_indent_width_depth" sheetId="6" r:id="rId7"/>
+    <sheet name="dQTL_mvd" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="365">
   <si>
     <t>Phenotype</t>
   </si>
@@ -290,9 +296,6 @@
     <t>GWR_100_70</t>
   </si>
   <si>
-    <t>p-value</t>
-  </si>
-  <si>
     <t>Shapiro normality test</t>
   </si>
   <si>
@@ -315,13 +318,1087 @@
   </si>
   <si>
     <t>when the variances of the two groups are equal. This can be checked using F-test.</t>
+  </si>
+  <si>
+    <t>Blup_Transfo_Indent_width_mean_field_year2</t>
+  </si>
+  <si>
+    <t>bulk1: p-value = 0.08471</t>
+  </si>
+  <si>
+    <t>p-value = 0.09562</t>
+  </si>
+  <si>
+    <t>bulk2: p-value = 0.0009419</t>
+  </si>
+  <si>
+    <t>Blup_Transfo_Indent_depth_mean_field_year2</t>
+  </si>
+  <si>
+    <t>bulk1: p-value = 0.002353</t>
+  </si>
+  <si>
+    <t>bulk2: p-value = 0.02518</t>
+  </si>
+  <si>
+    <t>p-value = 0.1411</t>
+  </si>
+  <si>
+    <t>GWR_100_119</t>
+  </si>
+  <si>
+    <t>GWR_100_324</t>
+  </si>
+  <si>
+    <t>XXX_100_64</t>
+  </si>
+  <si>
+    <t>GWR_100_241</t>
+  </si>
+  <si>
+    <t>GWR_100_336</t>
+  </si>
+  <si>
+    <t>GWR_100_180</t>
+  </si>
+  <si>
+    <t>XXX_100_128</t>
+  </si>
+  <si>
+    <t>XXX_100_30</t>
+  </si>
+  <si>
+    <t>GWR_100_156</t>
+  </si>
+  <si>
+    <t>GWR_100_185</t>
+  </si>
+  <si>
+    <t>GWR_100_273</t>
+  </si>
+  <si>
+    <t>GWR_100_24</t>
+  </si>
+  <si>
+    <t>GWR_100_133</t>
+  </si>
+  <si>
+    <t>XXX_100_110</t>
+  </si>
+  <si>
+    <t>GWR_100_222</t>
+  </si>
+  <si>
+    <t>GWR_100_28</t>
+  </si>
+  <si>
+    <t>GWR_100_194</t>
+  </si>
+  <si>
+    <t>GWR_100_285</t>
+  </si>
+  <si>
+    <t>GWR_100_437</t>
+  </si>
+  <si>
+    <t>GWR_100_46</t>
+  </si>
+  <si>
+    <t>GWR_100_315</t>
+  </si>
+  <si>
+    <t>GWR_100_377</t>
+  </si>
+  <si>
+    <t>GWR_100_438</t>
+  </si>
+  <si>
+    <t>GWR_100_53</t>
+  </si>
+  <si>
+    <t>GWR_100_447</t>
+  </si>
+  <si>
+    <t>XXX_100_11</t>
+  </si>
+  <si>
+    <t>GWR_100_334</t>
+  </si>
+  <si>
+    <t>GWR_100_40</t>
+  </si>
+  <si>
+    <t>XXX_100_50</t>
+  </si>
+  <si>
+    <t>GWR_100_304</t>
+  </si>
+  <si>
+    <t>GWR_100_296</t>
+  </si>
+  <si>
+    <t>IFG_100_462</t>
+  </si>
+  <si>
+    <t>XXX_100_234</t>
+  </si>
+  <si>
+    <t>GWR_100_431</t>
+  </si>
+  <si>
+    <t>GWR_100_122</t>
+  </si>
+  <si>
+    <t>GWR_100_227</t>
+  </si>
+  <si>
+    <t>XXX_100_167</t>
+  </si>
+  <si>
+    <t>GWR_100_147</t>
+  </si>
+  <si>
+    <t>GWR_100_360</t>
+  </si>
+  <si>
+    <t>XXX_100_51</t>
+  </si>
+  <si>
+    <t>XXX_100_54</t>
+  </si>
+  <si>
+    <t>GWR_100_200</t>
+  </si>
+  <si>
+    <t>XXX_100_163</t>
+  </si>
+  <si>
+    <t>XXX_100_139</t>
+  </si>
+  <si>
+    <t>GWR_100_212</t>
+  </si>
+  <si>
+    <t>XXX_100_13</t>
+  </si>
+  <si>
+    <t>GWR_100_352</t>
+  </si>
+  <si>
+    <t>GWR_100_3</t>
+  </si>
+  <si>
+    <t>GWR_100_483</t>
+  </si>
+  <si>
+    <t>GWR_100_2</t>
+  </si>
+  <si>
+    <t>GWR_100_450</t>
+  </si>
+  <si>
+    <t>XXX_100_118</t>
+  </si>
+  <si>
+    <t>GWR_100_370</t>
+  </si>
+  <si>
+    <t>GWR_100_89</t>
+  </si>
+  <si>
+    <t>GWR_100_248</t>
+  </si>
+  <si>
+    <t>XXX_100_124</t>
+  </si>
+  <si>
+    <t>GWR_100_301</t>
+  </si>
+  <si>
+    <t>GWR_100_125</t>
+  </si>
+  <si>
+    <t>XXX_100_161</t>
+  </si>
+  <si>
+    <t>GWR_100_19</t>
+  </si>
+  <si>
+    <t>GWR_100_246</t>
+  </si>
+  <si>
+    <t>XXX_100_33</t>
+  </si>
+  <si>
+    <t>GWR_100_214</t>
+  </si>
+  <si>
+    <t>XXX_100_31</t>
+  </si>
+  <si>
+    <t>XXX_100_5</t>
+  </si>
+  <si>
+    <t>GWR_100_13</t>
+  </si>
+  <si>
+    <t>GWR_100_1</t>
+  </si>
+  <si>
+    <t>GWR_100_48</t>
+  </si>
+  <si>
+    <t>GWR_100_271</t>
+  </si>
+  <si>
+    <t>GWR_100_413</t>
+  </si>
+  <si>
+    <t>GWR_100_187</t>
+  </si>
+  <si>
+    <t>GWR_100_74</t>
+  </si>
+  <si>
+    <t>GWR_100_84</t>
+  </si>
+  <si>
+    <t>XXX_100_101</t>
+  </si>
+  <si>
+    <t>GWR_100_158</t>
+  </si>
+  <si>
+    <t>GWR_100_179</t>
+  </si>
+  <si>
+    <t>GWR_100_215</t>
+  </si>
+  <si>
+    <t>GWR_100_319</t>
+  </si>
+  <si>
+    <t>GWR_100_50</t>
+  </si>
+  <si>
+    <t>GWR_100_102</t>
+  </si>
+  <si>
+    <t>GWR_100_277</t>
+  </si>
+  <si>
+    <t>XXX_100_175</t>
+  </si>
+  <si>
+    <t>GWR_100_442</t>
+  </si>
+  <si>
+    <t>GWR_100_400</t>
+  </si>
+  <si>
+    <t>GWR_100_11</t>
+  </si>
+  <si>
+    <t>XXX_100_29</t>
+  </si>
+  <si>
+    <t>GWR_100_129</t>
+  </si>
+  <si>
+    <t>XXX_100_57</t>
+  </si>
+  <si>
+    <t>GWR_100_252</t>
+  </si>
+  <si>
+    <t>GWR_100_134</t>
+  </si>
+  <si>
+    <t>GWR_100_162</t>
+  </si>
+  <si>
+    <t>GWR_100_151</t>
+  </si>
+  <si>
+    <t>XXX_100_93</t>
+  </si>
+  <si>
+    <t>XXX_100_249</t>
+  </si>
+  <si>
+    <t>GWR_100_152</t>
+  </si>
+  <si>
+    <t>GWR_100_58</t>
+  </si>
+  <si>
+    <t>XXX_100_133</t>
+  </si>
+  <si>
+    <t>XXX_100_130</t>
+  </si>
+  <si>
+    <t>bulk1: p-value = 0.01049</t>
+  </si>
+  <si>
+    <t>bulk2: p-value = 0.01895</t>
+  </si>
+  <si>
+    <t>p-value = 0.1493</t>
+  </si>
+  <si>
+    <t>bulk1: p-value = 0.02971</t>
+  </si>
+  <si>
+    <t>bulk2: p-value = 0.00235</t>
+  </si>
+  <si>
+    <t>p-value = 0.04607</t>
+  </si>
+  <si>
+    <t>bulk1: p-value = 0.04269</t>
+  </si>
+  <si>
+    <t>bulk2: p-value = 0.2699</t>
+  </si>
+  <si>
+    <t>p-value = 0.2502</t>
+  </si>
+  <si>
+    <t>Blup_Transfo_AUC_color_y3</t>
+  </si>
+  <si>
+    <t>bulk1: p-value = 0.06377</t>
+  </si>
+  <si>
+    <t>bulk2: p-value = 0.001701</t>
+  </si>
+  <si>
+    <t>p-value = 0.8213</t>
+  </si>
+  <si>
+    <t>Blup_Transfo_time_serie_color_y1_y2_y3</t>
+  </si>
+  <si>
+    <t>bulk1: p-value = 0.0133</t>
+  </si>
+  <si>
+    <t>bulk2: p-value = 0.04066</t>
+  </si>
+  <si>
+    <t>p-value = 0.7151</t>
+  </si>
+  <si>
+    <t>bulk1: p-value = 0.1709</t>
+  </si>
+  <si>
+    <t>bulk2: p-value = 0.3844</t>
+  </si>
+  <si>
+    <t>p-value = 0.2426</t>
+  </si>
+  <si>
+    <t>bulk1: p-value = 0.2548</t>
+  </si>
+  <si>
+    <t>bulk2: p-value = 0.01791</t>
+  </si>
+  <si>
+    <t>p-value = 0.772</t>
+  </si>
+  <si>
+    <t>bulk1: p-value = 0.006382</t>
+  </si>
+  <si>
+    <t>bulk2: p-value = 0.1876</t>
+  </si>
+  <si>
+    <t>p-value = 0.3773</t>
+  </si>
+  <si>
+    <t>t-test</t>
+  </si>
+  <si>
+    <t>bulk1: p-value = 0.7046</t>
+  </si>
+  <si>
+    <t>bulk2: p-value = 0.0875</t>
+  </si>
+  <si>
+    <t>p-value = 0.01877</t>
+  </si>
+  <si>
+    <t>bulk1: p-value =0.02839</t>
+  </si>
+  <si>
+    <t>bulk2: p-value = 0.05951</t>
+  </si>
+  <si>
+    <t>p-value = 0.3006</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>biomass</t>
+  </si>
+  <si>
+    <t>leaf morphology</t>
+  </si>
+  <si>
+    <t>&lt;2.2E-16</t>
+  </si>
+  <si>
+    <t>bulk1: p-value = 0.1993</t>
+  </si>
+  <si>
+    <t>bulk2: p-value = 0.04876</t>
+  </si>
+  <si>
+    <t>p-value = 0.05153</t>
+  </si>
+  <si>
+    <t>vessel</t>
+  </si>
+  <si>
+    <t>bulk1: p-value = 0.08981</t>
+  </si>
+  <si>
+    <t>bulk2: p-value = 0.02086</t>
+  </si>
+  <si>
+    <t>p-value = 0.03757</t>
+  </si>
+  <si>
+    <t>BLUP_cvf</t>
+  </si>
+  <si>
+    <t>bulk1: p-value = 0.06291</t>
+  </si>
+  <si>
+    <t>bulk2: p-value = 0.007284</t>
+  </si>
+  <si>
+    <t>p-value = 0.943</t>
+  </si>
+  <si>
+    <t>BLUP_vgi</t>
+  </si>
+  <si>
+    <t>bulk1: p-value = 0.6824</t>
+  </si>
+  <si>
+    <t>bulk2: p-value = 0.0008671</t>
+  </si>
+  <si>
+    <t>p-value = 0.2388</t>
+  </si>
+  <si>
+    <t>bulk1: p-value = 0.105</t>
+  </si>
+  <si>
+    <t>bulk2: p-value = 0.01247</t>
+  </si>
+  <si>
+    <t>p-value = 0.8687</t>
+  </si>
+  <si>
+    <t>bulk1: p-value = 0.02632</t>
+  </si>
+  <si>
+    <t>bulk2: p-value = 0.01416</t>
+  </si>
+  <si>
+    <t>p-value = 0.9196</t>
+  </si>
+  <si>
+    <t>GWR_100_328</t>
+  </si>
+  <si>
+    <t>GWR_100_117</t>
+  </si>
+  <si>
+    <t>GWR_100_157</t>
+  </si>
+  <si>
+    <t>GWR_100_99</t>
+  </si>
+  <si>
+    <t>GWR_100_116</t>
+  </si>
+  <si>
+    <t>GWR_100_159</t>
+  </si>
+  <si>
+    <t>GWR_100_327</t>
+  </si>
+  <si>
+    <t>GWR_100_260</t>
+  </si>
+  <si>
+    <t>XXX_100_35</t>
+  </si>
+  <si>
+    <t>GWR_100_149</t>
+  </si>
+  <si>
+    <t>GWR_100_170</t>
+  </si>
+  <si>
+    <t>GWR_100_254</t>
+  </si>
+  <si>
+    <t>GWR_100_426</t>
+  </si>
+  <si>
+    <t>GWR_100_433</t>
+  </si>
+  <si>
+    <t>XXX_100_247</t>
+  </si>
+  <si>
+    <t>XXX_100_74</t>
+  </si>
+  <si>
+    <t>GWR_100_332</t>
+  </si>
+  <si>
+    <t>GWR_100_52</t>
+  </si>
+  <si>
+    <t>GWR_100_111</t>
+  </si>
+  <si>
+    <t>GWR_100_255</t>
+  </si>
+  <si>
+    <t>GWR_100_62</t>
+  </si>
+  <si>
+    <t>GWR_100_183</t>
+  </si>
+  <si>
+    <t>GWR_100_198</t>
+  </si>
+  <si>
+    <t>GWR_100_108</t>
+  </si>
+  <si>
+    <t>GWR_100_292</t>
+  </si>
+  <si>
+    <t>XXX_100_56</t>
+  </si>
+  <si>
+    <t>GWR_100_96</t>
+  </si>
+  <si>
+    <t>XXX_100_71</t>
+  </si>
+  <si>
+    <t>GWR_100_349</t>
+  </si>
+  <si>
+    <t>GWR_100_121</t>
+  </si>
+  <si>
+    <t>GWR_100_132</t>
+  </si>
+  <si>
+    <t>GWR_100_345</t>
+  </si>
+  <si>
+    <t>GWR_100_240</t>
+  </si>
+  <si>
+    <t>GWR_100_467</t>
+  </si>
+  <si>
+    <t>GWR_100_338</t>
+  </si>
+  <si>
+    <t>GWR_100_154</t>
+  </si>
+  <si>
+    <t>GWR_100_86</t>
+  </si>
+  <si>
+    <t>GWR_100_473</t>
+  </si>
+  <si>
+    <t>GWR_100_385</t>
+  </si>
+  <si>
+    <t>GWR_100_123</t>
+  </si>
+  <si>
+    <t>GWR_100_167</t>
+  </si>
+  <si>
+    <t>XXX_100_158</t>
+  </si>
+  <si>
+    <t>XXX_100_170</t>
+  </si>
+  <si>
+    <t>GWR_100_414</t>
+  </si>
+  <si>
+    <t>GWR_100_372</t>
+  </si>
+  <si>
+    <t>GWR_100_263</t>
+  </si>
+  <si>
+    <t>GWR_100_244</t>
+  </si>
+  <si>
+    <t>F-test p-value &lt;0.05</t>
+  </si>
+  <si>
+    <t>normality p-value &gt;0.05</t>
+  </si>
+  <si>
+    <t>normality 0.01 &lt; p-value &lt; 0.05</t>
+  </si>
+  <si>
+    <t>Bulk size (# of samples)</t>
+  </si>
+  <si>
+    <t>BLUP_mvd (mean vessel diameter)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Supplemental Dataset 3: list of the phenotype dosage quantitative trait loci (phenotype dQTL) identified in the </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Populus deltoides</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> x gamma-irradiated </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>P. nigra</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> population. Supplemental Data. Bastiaanse et al. (2021). Plant Cell 10.1105/tpc.20.00573.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  phenotype dQTL were detected by computing the P-value of the Kendall rank correlation between the phenotypic BLUP values (best linear unbiased predictor) and the relative dosage ratios for each chromosomal bins . </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">      Chromosomal bins were defined by the intersection points of all indels. Relative gene dosage ratios were calculated by dividing the gene copy number of each bin by the background ploidy of the line. Contiguous significant </t>
+  </si>
+  <si>
+    <t xml:space="preserve">      bins on the same chromosome were pooled and declared to be part of a same QTL </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> P-values of the Kendall rank correlation test after adjustment for false discovery rate by dividing the Pvalue by the number of indepedent tests</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> linkage of the phenotype dQTL were declared as 'suggestive' for adjusted P-value &lt;0.1; 'significant' for adjusted P-value &lt;0.05; 'confirmed' for adjusted P-value &lt;0.01</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> start and end of the individual phenotype dQTL in base pairs (bp)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>e</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> number of chromosomal bins spanning the phenotype dQTL interval</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>f</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> positive effects indicates an increase of the phenotypic trait value with increased dosage, negative effects indicates a decrease of the phenotypic trait value with increased dosage</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>g</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  adjusted R-squared of the multivariate linear regression model fitting all the genomic bins underlying the phenotype dQTL </t>
+    </r>
+  </si>
+  <si>
+    <t>Trait</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">phenotype dQTL </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>a</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">adjusted P-value </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>b</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">phenotype dQTL class </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>c</t>
+    </r>
+  </si>
+  <si>
+    <t>Chr</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Start (bp) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>d</t>
+    </r>
+  </si>
+  <si>
+    <t>End (bp)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">No bins phenotype dQTL </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>e</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">effect_on_phenotype </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>f</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Percentage variance explained </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>g</t>
+    </r>
+  </si>
+  <si>
+    <t>Indent_width_y2</t>
+  </si>
+  <si>
+    <t>Serration</t>
+  </si>
+  <si>
+    <t>QTL_chr_04_1</t>
+  </si>
+  <si>
+    <t>significant linkage</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>QTL_chr_06_1</t>
+  </si>
+  <si>
+    <t>suggestive linkage</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>QTL_chr_19_1</t>
+  </si>
+  <si>
+    <t>confirmed linkage</t>
+  </si>
+  <si>
+    <t>QTL_chr_19_2</t>
+  </si>
+  <si>
+    <t>Indent_depth_y2</t>
+  </si>
+  <si>
+    <t>QTL_chr_02_1</t>
+  </si>
+  <si>
+    <t>QTL_chr_14_1</t>
+  </si>
+  <si>
+    <t>QTL_chr_14_2</t>
+  </si>
+  <si>
+    <t>Location (MBP)</t>
+  </si>
+  <si>
+    <t>P-value</t>
+  </si>
+  <si>
+    <t>Variance explained (%)</t>
+  </si>
+  <si>
+    <t>MVD</t>
+  </si>
+  <si>
+    <t>6.10–6.65</t>
+  </si>
+  <si>
+    <t>6.60–6.75</t>
+  </si>
+  <si>
+    <t>6.75–7.00</t>
+  </si>
+  <si>
+    <t>Traits</t>
+  </si>
+  <si>
+    <t>No. QTLs</t>
+  </si>
+  <si>
+    <t>suggestive</t>
+  </si>
+  <si>
+    <t>significant</t>
+  </si>
+  <si>
+    <t>confirm</t>
+  </si>
+  <si>
+    <t>Total No. QTL (+.-)</t>
+  </si>
+  <si>
+    <t>Percent of variance explained by individual QTL</t>
+  </si>
+  <si>
+    <t>Percent of variance explained by all QTL</t>
+  </si>
+  <si>
+    <t>Color_year1,2,3</t>
+  </si>
+  <si>
+    <t>17 (14,3)</t>
+  </si>
+  <si>
+    <t>1.7 ± 0.8</t>
+  </si>
+  <si>
+    <t>Time_serie_color_ year1,2,3</t>
+  </si>
+  <si>
+    <t>14 (3,11)</t>
+  </si>
+  <si>
+    <t>1.9 ± 1.5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -336,19 +1413,78 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Monaco"/>
-      <family val="3"/>
-    </font>
-    <font>
       <sz val="13"/>
       <color rgb="FFBA4B49"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -361,8 +1497,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -370,22 +1518,126 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -402,6 +1654,226 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>411199</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F2BB0B4-0606-78D8-EBFA-8DEEABD08D77}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3479800" y="241301"/>
+          <a:ext cx="5922999" cy="4229100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>208148</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>1487</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8281936B-9356-8DC4-5985-5BE7EDCB6A63}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3644900" y="635000"/>
+          <a:ext cx="5554848" cy="3430487"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>587003</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>139072</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16835C78-C938-4DEA-5367-C8641082C67B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3492500" y="850900"/>
+          <a:ext cx="6086103" cy="3758572"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>184469</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4E0B526-EE9A-97A3-AA00-80812310B526}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3441700" y="977900"/>
+          <a:ext cx="5295900" cy="3270569"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -701,217 +2173,672 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8941B2D5-FD5B-9E45-8C3F-715B4C14F093}">
-  <dimension ref="A1:D42"/>
+  <dimension ref="A1:H59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.83203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" customWidth="1"/>
+    <col min="7" max="7" width="17.5" customWidth="1"/>
+    <col min="8" max="8" width="28.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="10" t="s">
+        <v>306</v>
+      </c>
+      <c r="D1" t="s">
         <v>84</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F1" t="s">
+        <v>224</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="32" t="s">
+        <v>232</v>
+      </c>
+      <c r="B2" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="11">
+        <v>40</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E2" s="8" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="7">
-        <v>2.2E-16</v>
-      </c>
-      <c r="C2" s="5" t="s">
+      <c r="F2" s="17" t="s">
+        <v>234</v>
+      </c>
+      <c r="G2" s="17"/>
+      <c r="H2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="32"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="11">
+        <v>40</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="6"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="6"/>
-      <c r="B4" s="7"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="6"/>
-      <c r="B5" s="7"/>
-    </row>
-    <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="B6" s="7"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="H3" t="s">
         <v>91</v>
       </c>
-      <c r="B7" s="7"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="32"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="11">
+        <v>30</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="E4" t="s">
+        <v>206</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>234</v>
+      </c>
+      <c r="G4" s="17"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="32"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="11">
+        <v>30</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="32"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="12">
+        <v>20</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>217</v>
+      </c>
+      <c r="F6" s="21" t="s">
+        <v>234</v>
+      </c>
+      <c r="G6" s="19"/>
+      <c r="H6" s="23" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="32"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="14">
+        <v>20</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>216</v>
+      </c>
+      <c r="E7" s="22"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="6" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="32"/>
+      <c r="B8" s="33" t="s">
+        <v>207</v>
+      </c>
+      <c r="C8" s="9">
+        <v>30</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="E8" t="s">
+        <v>210</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>234</v>
+      </c>
+      <c r="G8" s="17"/>
+      <c r="H8" s="25" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="32"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="11">
+        <v>30</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="32"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="9">
+        <v>20</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="E10" t="s">
+        <v>220</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>234</v>
+      </c>
+      <c r="G10" s="17"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="32"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="11">
+        <v>20</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="32"/>
+      <c r="B12" s="33" t="s">
+        <v>211</v>
+      </c>
+      <c r="C12" s="9">
+        <v>30</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="E12" t="s">
+        <v>214</v>
+      </c>
+      <c r="F12" s="17" t="s">
+        <v>234</v>
+      </c>
+      <c r="G12" s="17"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="32"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="11">
+        <v>30</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="32"/>
+      <c r="B14" s="33"/>
+      <c r="C14" s="9">
+        <v>20</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="E14" t="s">
+        <v>223</v>
+      </c>
+      <c r="F14" s="17" t="s">
+        <v>234</v>
+      </c>
+      <c r="G14" s="17"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="32"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="11">
+        <v>20</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="32" t="s">
+        <v>238</v>
+      </c>
+      <c r="B16" s="31" t="s">
+        <v>307</v>
+      </c>
+      <c r="C16" s="11">
+        <v>40</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="F16" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="32"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="11">
+        <v>40</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="32"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="11">
+        <v>30</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="E18" t="s">
+        <v>237</v>
+      </c>
+      <c r="F18" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="32"/>
+      <c r="B19" s="31"/>
+      <c r="C19" s="11">
+        <v>30</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="32"/>
+      <c r="B20" s="31" t="s">
+        <v>242</v>
+      </c>
+      <c r="C20" s="11">
+        <v>20</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="E20" t="s">
+        <v>245</v>
+      </c>
+      <c r="F20" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="32"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="11">
+        <v>20</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="32"/>
+      <c r="B22" s="31" t="s">
+        <v>246</v>
+      </c>
+      <c r="C22" s="11">
+        <v>40</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="E22" t="s">
+        <v>249</v>
+      </c>
+      <c r="F22" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="32"/>
+      <c r="B23" s="31"/>
+      <c r="C23" s="11">
+        <v>40</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="32"/>
+      <c r="B24" s="31"/>
+      <c r="C24" s="11">
+        <v>30</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="E24" t="s">
+        <v>252</v>
+      </c>
+      <c r="F24" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="32"/>
+      <c r="B25" s="31"/>
+      <c r="C25" s="11">
+        <v>30</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="32"/>
+      <c r="B26" s="31"/>
+      <c r="C26" s="11">
+        <v>20</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="E26" t="s">
+        <v>255</v>
+      </c>
+      <c r="F26" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="32"/>
+      <c r="B27" s="31"/>
+      <c r="C27" s="11">
+        <v>20</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="32" t="s">
+        <v>233</v>
+      </c>
+      <c r="B28" s="33" t="s">
         <v>92</v>
       </c>
-      <c r="B8" s="7"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="6"/>
-      <c r="B9" s="7"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="6"/>
-      <c r="B10" s="7"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="6"/>
-      <c r="B11" s="7"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="6"/>
-      <c r="B12" s="7"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="6"/>
-      <c r="B13" s="7"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="6"/>
-      <c r="B14" s="7"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="6"/>
-      <c r="B15" s="7"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="6"/>
-      <c r="B16" s="7"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="6"/>
-      <c r="B17" s="7"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="6"/>
-      <c r="B18" s="7"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="6"/>
-      <c r="B19" s="7"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="6"/>
-      <c r="B20" s="7"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="6"/>
-      <c r="B21" s="7"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="6"/>
-      <c r="B22" s="7"/>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="6"/>
-      <c r="B23" s="7"/>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="6"/>
-      <c r="B24" s="7"/>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="6"/>
-      <c r="B25" s="7"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="6"/>
-      <c r="B26" s="7"/>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="6"/>
-      <c r="B27" s="7"/>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="6"/>
-      <c r="B28" s="7"/>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="6"/>
-      <c r="B29" s="7"/>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="6"/>
-      <c r="B30" s="7"/>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="6"/>
-      <c r="B31" s="7"/>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="6"/>
-      <c r="B32" s="7"/>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="6"/>
-      <c r="B33" s="7"/>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="6"/>
-      <c r="B34" s="7"/>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="6"/>
-      <c r="B35" s="7"/>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="6"/>
-      <c r="B36" s="7"/>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" s="6"/>
-      <c r="B37" s="7"/>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" s="6"/>
-      <c r="B38" s="7"/>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" s="6"/>
-      <c r="B39" s="7"/>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" s="6"/>
-      <c r="B40" s="7"/>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" s="6"/>
-      <c r="B41" s="7"/>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B42" s="2"/>
+      <c r="C28" s="9">
+        <v>40</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E28" t="s">
+        <v>94</v>
+      </c>
+      <c r="F28" s="17" t="s">
+        <v>234</v>
+      </c>
+      <c r="G28" s="17"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="32"/>
+      <c r="B29" s="33"/>
+      <c r="C29" s="11">
+        <v>40</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="32"/>
+      <c r="B30" s="33"/>
+      <c r="C30" s="9">
+        <v>30</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="F30" s="17" t="s">
+        <v>234</v>
+      </c>
+      <c r="G30" s="17"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="32"/>
+      <c r="B31" s="33"/>
+      <c r="C31" s="11">
+        <v>30</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="32"/>
+      <c r="B32" s="33"/>
+      <c r="C32" s="9">
+        <v>20</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="F32" s="17" t="s">
+        <v>234</v>
+      </c>
+      <c r="G32" s="17"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" s="32"/>
+      <c r="B33" s="33"/>
+      <c r="C33" s="11">
+        <v>20</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" s="32"/>
+      <c r="B34" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="C34" s="9">
+        <v>40</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="E34" t="s">
+        <v>99</v>
+      </c>
+      <c r="F34" s="17" t="s">
+        <v>234</v>
+      </c>
+      <c r="G34" s="17"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" s="32"/>
+      <c r="B35" s="33"/>
+      <c r="C35" s="11">
+        <v>40</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" s="32"/>
+      <c r="B36" s="33"/>
+      <c r="C36" s="9">
+        <v>30</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="E36" t="s">
+        <v>200</v>
+      </c>
+      <c r="F36" s="17" t="s">
+        <v>234</v>
+      </c>
+      <c r="G36" s="17"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" s="32"/>
+      <c r="B37" s="33"/>
+      <c r="C37" s="11">
+        <v>30</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" s="32"/>
+      <c r="B38" s="33"/>
+      <c r="C38" s="9">
+        <v>20</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="E38" t="s">
+        <v>230</v>
+      </c>
+      <c r="F38" s="17" t="s">
+        <v>234</v>
+      </c>
+      <c r="G38" s="17"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" s="32"/>
+      <c r="B39" s="33"/>
+      <c r="C39" s="11">
+        <v>20</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B40" s="4"/>
+      <c r="C40" s="11"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B45" s="4"/>
+      <c r="C45" s="11"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B46" s="4"/>
+      <c r="C46" s="11"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B47" s="4"/>
+      <c r="C47" s="11"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B48" s="4"/>
+      <c r="C48" s="11"/>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B49" s="4"/>
+      <c r="C49" s="11"/>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B50" s="4"/>
+      <c r="C50" s="11"/>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B51" s="4"/>
+      <c r="C51" s="11"/>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B52" s="4"/>
+      <c r="C52" s="11"/>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B53" s="4"/>
+      <c r="C53" s="11"/>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B54" s="4"/>
+      <c r="C54" s="11"/>
+    </row>
+    <row r="55" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B55" s="4"/>
+      <c r="C55" s="11"/>
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B56" s="4"/>
+      <c r="C56" s="11"/>
+    </row>
+    <row r="57" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B57" s="4"/>
+      <c r="C57" s="11"/>
+    </row>
+    <row r="58" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B58" s="4"/>
+      <c r="C58" s="11"/>
+    </row>
+    <row r="59" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B59" s="4"/>
+      <c r="C59" s="11"/>
     </row>
   </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B22:B27"/>
+    <mergeCell ref="A16:A27"/>
+    <mergeCell ref="A2:A15"/>
+    <mergeCell ref="A28:A39"/>
+    <mergeCell ref="B28:B33"/>
+    <mergeCell ref="B34:B39"/>
+    <mergeCell ref="B2:B7"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="B16:B19"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -920,8 +2847,353 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70D82A5D-785D-9146-A7FB-63251DC9D6AA}">
   <dimension ref="A1:B41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E50E321D-8EC5-B148-B603-8A7DFB4735B1}">
+  <dimension ref="A1:B41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -939,323 +3211,1847 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>44</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>101</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>45</v>
+        <v>134</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>102</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>46</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>103</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>47</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>104</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>48</v>
+        <v>137</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>105</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>49</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>50</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>51</v>
+        <v>140</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>106</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>52</v>
+        <v>141</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>53</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>54</v>
+        <v>143</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>108</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>55</v>
+        <v>144</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>109</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>56</v>
+        <v>145</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>110</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>57</v>
+        <v>146</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>111</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>58</v>
+        <v>147</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>112</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>59</v>
+        <v>148</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>113</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>60</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>114</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>61</v>
+        <v>149</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>115</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>62</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>116</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>63</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>117</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>64</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>118</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>119</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>66</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>120</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>67</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>121</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>68</v>
+        <v>151</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>122</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>69</v>
+        <v>152</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>123</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>70</v>
+        <v>153</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>124</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>71</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>125</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>72</v>
+        <v>33</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>126</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>73</v>
+        <v>154</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>74</v>
+        <v>155</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>268</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>75</v>
+        <v>156</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>127</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>76</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>128</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>77</v>
+        <v>38</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>78</v>
+        <v>157</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>129</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>130</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>81</v>
+        <v>34</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>131</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>82</v>
+        <v>158</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{722FE8F3-8C22-F449-9CB2-A7BC650034DF}">
+  <dimension ref="A1:B41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>43</v>
       </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>108</v>
+      </c>
       <c r="B41" s="1" t="s">
-        <v>83</v>
-      </c>
+        <v>197</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED480FFF-7725-9948-A9E2-EF9D16E4D945}">
+  <dimension ref="A1:B41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.5" style="24" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="B2" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="B3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="B4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="B5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="24" t="s">
+        <v>191</v>
+      </c>
+      <c r="B8" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="24" t="s">
+        <v>260</v>
+      </c>
+      <c r="B9" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="24" t="s">
+        <v>261</v>
+      </c>
+      <c r="B10" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="B11" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="B12" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="24" t="s">
+        <v>262</v>
+      </c>
+      <c r="B13" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="B14" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="24" t="s">
+        <v>264</v>
+      </c>
+      <c r="B15" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="24" t="s">
+        <v>265</v>
+      </c>
+      <c r="B16" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="24" t="s">
+        <v>266</v>
+      </c>
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="B18" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="24" t="s">
+        <v>267</v>
+      </c>
+      <c r="B19" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="B22" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="24" t="s">
+        <v>268</v>
+      </c>
+      <c r="B23" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="B25" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="24" t="s">
+        <v>269</v>
+      </c>
+      <c r="B26" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="24" t="s">
+        <v>270</v>
+      </c>
+      <c r="B27" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="B28" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="B29" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="B30" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="24" t="s">
+        <v>271</v>
+      </c>
+      <c r="B31" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="24" t="s">
+        <v>272</v>
+      </c>
+      <c r="B32" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="24" t="s">
+        <v>273</v>
+      </c>
+      <c r="B33" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="24" t="s">
+        <v>274</v>
+      </c>
+      <c r="B34" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="B35" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="24" t="s">
+        <v>275</v>
+      </c>
+      <c r="B36" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="24" t="s">
+        <v>276</v>
+      </c>
+      <c r="B37" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="B38" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="24" t="s">
+        <v>277</v>
+      </c>
+      <c r="B39" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="24" t="s">
+        <v>278</v>
+      </c>
+      <c r="B40" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="B41" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58B240B8-F8BA-AB4B-A278-71162DEA1163}">
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="40.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="34.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="35" t="s">
+        <v>351</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>352</v>
+      </c>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35" t="s">
+        <v>356</v>
+      </c>
+      <c r="F1" s="35" t="s">
+        <v>323</v>
+      </c>
+      <c r="G1" s="35" t="s">
+        <v>357</v>
+      </c>
+      <c r="H1" s="35" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="35"/>
+      <c r="B2" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>359</v>
+      </c>
+      <c r="B3">
+        <v>11</v>
+      </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>360</v>
+      </c>
+      <c r="F3">
+        <v>7</v>
+      </c>
+      <c r="G3" t="s">
+        <v>361</v>
+      </c>
+      <c r="H3">
+        <v>15.3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>362</v>
+      </c>
+      <c r="B4">
+        <v>7</v>
+      </c>
+      <c r="C4">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>363</v>
+      </c>
+      <c r="F4">
+        <v>7</v>
+      </c>
+      <c r="G4" t="s">
+        <v>364</v>
+      </c>
+      <c r="H4">
+        <v>17.399999999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50749EE5-81FF-814A-80B9-223B0168A426}">
+  <dimension ref="A1:V21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.33203125" customWidth="1"/>
+    <col min="3" max="3" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="5" max="5" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="26" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="26" t="s">
+        <v>308</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+      <c r="P1" s="27"/>
+      <c r="Q1" s="27"/>
+      <c r="R1" s="27"/>
+      <c r="S1" s="27"/>
+      <c r="T1" s="27"/>
+      <c r="U1" s="27"/>
+      <c r="V1" s="27"/>
+    </row>
+    <row r="2" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="28" t="s">
+        <v>309</v>
+      </c>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="27"/>
+      <c r="O2" s="27"/>
+      <c r="P2" s="27"/>
+      <c r="Q2" s="27"/>
+      <c r="R2" s="27"/>
+      <c r="S2" s="27"/>
+      <c r="T2" s="27"/>
+      <c r="U2" s="27"/>
+      <c r="V2" s="27"/>
+    </row>
+    <row r="3" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="27" t="s">
+        <v>310</v>
+      </c>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="27"/>
+      <c r="M3" s="27"/>
+      <c r="N3" s="27"/>
+      <c r="O3" s="27"/>
+      <c r="P3" s="27"/>
+      <c r="Q3" s="27"/>
+      <c r="R3" s="27"/>
+      <c r="S3" s="27"/>
+      <c r="T3" s="27"/>
+      <c r="U3" s="27"/>
+      <c r="V3" s="27"/>
+    </row>
+    <row r="4" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="27" t="s">
+        <v>311</v>
+      </c>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="27"/>
+      <c r="N4" s="27"/>
+      <c r="O4" s="27"/>
+      <c r="P4" s="27"/>
+      <c r="Q4" s="27"/>
+      <c r="R4" s="27"/>
+      <c r="S4" s="27"/>
+      <c r="T4" s="27"/>
+      <c r="U4" s="27"/>
+      <c r="V4" s="27"/>
+    </row>
+    <row r="5" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="28" t="s">
+        <v>312</v>
+      </c>
+      <c r="B5" s="27"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="27"/>
+      <c r="L5" s="27"/>
+      <c r="M5" s="27"/>
+      <c r="N5" s="27"/>
+      <c r="O5" s="27"/>
+      <c r="P5" s="27"/>
+      <c r="Q5" s="27"/>
+      <c r="R5" s="27"/>
+      <c r="S5" s="27"/>
+      <c r="T5" s="27"/>
+      <c r="U5" s="27"/>
+      <c r="V5" s="27"/>
+    </row>
+    <row r="6" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="28" t="s">
+        <v>313</v>
+      </c>
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="27"/>
+      <c r="N6" s="27"/>
+      <c r="O6" s="27"/>
+      <c r="P6" s="27"/>
+      <c r="Q6" s="27"/>
+      <c r="R6" s="27"/>
+      <c r="S6" s="27"/>
+      <c r="T6" s="27"/>
+      <c r="U6" s="27"/>
+      <c r="V6" s="27"/>
+    </row>
+    <row r="7" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="28" t="s">
+        <v>314</v>
+      </c>
+      <c r="B7" s="27"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="27"/>
+      <c r="N7" s="27"/>
+      <c r="O7" s="27"/>
+      <c r="P7" s="27"/>
+      <c r="Q7" s="27"/>
+      <c r="R7" s="27"/>
+      <c r="S7" s="27"/>
+      <c r="T7" s="27"/>
+      <c r="U7" s="27"/>
+      <c r="V7" s="27"/>
+    </row>
+    <row r="8" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="28" t="s">
+        <v>315</v>
+      </c>
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="27"/>
+      <c r="N8" s="27"/>
+      <c r="O8" s="27"/>
+      <c r="P8" s="27"/>
+      <c r="Q8" s="27"/>
+      <c r="R8" s="27"/>
+      <c r="S8" s="27"/>
+      <c r="T8" s="27"/>
+      <c r="U8" s="27"/>
+      <c r="V8" s="27"/>
+    </row>
+    <row r="9" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="28" t="s">
+        <v>316</v>
+      </c>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="27"/>
+      <c r="N9" s="27"/>
+      <c r="O9" s="27"/>
+      <c r="P9" s="27"/>
+      <c r="Q9" s="27"/>
+      <c r="R9" s="27"/>
+      <c r="S9" s="27"/>
+      <c r="T9" s="27"/>
+      <c r="U9" s="27"/>
+      <c r="V9" s="27"/>
+    </row>
+    <row r="10" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="28" t="s">
+        <v>317</v>
+      </c>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27"/>
+      <c r="N10" s="27"/>
+      <c r="O10" s="27"/>
+      <c r="P10" s="27"/>
+      <c r="Q10" s="27"/>
+      <c r="R10" s="27"/>
+      <c r="S10" s="27"/>
+      <c r="T10" s="27"/>
+      <c r="U10" s="27"/>
+      <c r="V10" s="27"/>
+    </row>
+    <row r="11" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="27"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="27"/>
+    </row>
+    <row r="12" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+      <c r="A12" s="27"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="27"/>
+    </row>
+    <row r="13" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" s="29" t="s">
+        <v>318</v>
+      </c>
+      <c r="B13" s="29" t="s">
+        <v>319</v>
+      </c>
+      <c r="C13" s="29" t="s">
+        <v>320</v>
+      </c>
+      <c r="D13" s="29" t="s">
+        <v>321</v>
+      </c>
+      <c r="E13" s="29" t="s">
+        <v>322</v>
+      </c>
+      <c r="F13" s="29" t="s">
+        <v>323</v>
+      </c>
+      <c r="G13" s="29" t="s">
+        <v>324</v>
+      </c>
+      <c r="H13" s="29" t="s">
+        <v>325</v>
+      </c>
+      <c r="I13" s="29" t="s">
+        <v>326</v>
+      </c>
+      <c r="J13" s="29" t="s">
+        <v>327</v>
+      </c>
+      <c r="K13" s="29" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A14" s="27" t="s">
+        <v>329</v>
+      </c>
+      <c r="B14" s="27" t="s">
+        <v>330</v>
+      </c>
+      <c r="C14" s="27" t="s">
+        <v>331</v>
+      </c>
+      <c r="D14" s="30">
+        <v>4.18783691214792E-2</v>
+      </c>
+      <c r="E14" s="27" t="s">
+        <v>332</v>
+      </c>
+      <c r="F14" s="30">
+        <v>4</v>
+      </c>
+      <c r="G14" s="30">
+        <v>7400001</v>
+      </c>
+      <c r="H14" s="30">
+        <v>9200000</v>
+      </c>
+      <c r="I14" s="30">
+        <v>1</v>
+      </c>
+      <c r="J14" s="27" t="s">
+        <v>333</v>
+      </c>
+      <c r="K14" s="30">
+        <v>1.38240350514263</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A15" s="27" t="s">
+        <v>329</v>
+      </c>
+      <c r="B15" s="27" t="s">
+        <v>330</v>
+      </c>
+      <c r="C15" s="27" t="s">
+        <v>334</v>
+      </c>
+      <c r="D15" s="30">
+        <v>9.9932836749672502E-2</v>
+      </c>
+      <c r="E15" s="27" t="s">
+        <v>335</v>
+      </c>
+      <c r="F15" s="30">
+        <v>6</v>
+      </c>
+      <c r="G15" s="30">
+        <v>20100001</v>
+      </c>
+      <c r="H15" s="30">
+        <v>20700000</v>
+      </c>
+      <c r="I15" s="30">
+        <v>1</v>
+      </c>
+      <c r="J15" s="27" t="s">
+        <v>336</v>
+      </c>
+      <c r="K15" s="30">
+        <v>1.1844746328251701</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A16" s="27" t="s">
+        <v>329</v>
+      </c>
+      <c r="B16" s="27" t="s">
+        <v>330</v>
+      </c>
+      <c r="C16" s="27" t="s">
+        <v>337</v>
+      </c>
+      <c r="D16" s="30">
+        <v>6.8165368993734904E-3</v>
+      </c>
+      <c r="E16" s="27" t="s">
+        <v>338</v>
+      </c>
+      <c r="F16" s="30">
+        <v>19</v>
+      </c>
+      <c r="G16" s="30">
+        <v>1</v>
+      </c>
+      <c r="H16" s="30">
+        <v>4500000</v>
+      </c>
+      <c r="I16" s="30">
+        <v>10</v>
+      </c>
+      <c r="J16" s="27" t="s">
+        <v>333</v>
+      </c>
+      <c r="K16" s="30">
+        <v>4.2452437274162698</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" s="27" t="s">
+        <v>329</v>
+      </c>
+      <c r="B17" s="27" t="s">
+        <v>330</v>
+      </c>
+      <c r="C17" s="27" t="s">
+        <v>339</v>
+      </c>
+      <c r="D17" s="30">
+        <v>8.9124209791448E-2</v>
+      </c>
+      <c r="E17" s="27" t="s">
+        <v>335</v>
+      </c>
+      <c r="F17" s="30">
+        <v>19</v>
+      </c>
+      <c r="G17" s="30">
+        <v>5000001</v>
+      </c>
+      <c r="H17" s="30">
+        <v>5200000</v>
+      </c>
+      <c r="I17" s="30">
+        <v>1</v>
+      </c>
+      <c r="J17" s="27" t="s">
+        <v>333</v>
+      </c>
+      <c r="K17" s="30">
+        <v>1.4647698940717699</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" s="27" t="s">
+        <v>340</v>
+      </c>
+      <c r="B18" s="27" t="s">
+        <v>330</v>
+      </c>
+      <c r="C18" s="27" t="s">
+        <v>341</v>
+      </c>
+      <c r="D18" s="30">
+        <v>1.4945313534329201E-2</v>
+      </c>
+      <c r="E18" s="27" t="s">
+        <v>332</v>
+      </c>
+      <c r="F18" s="30">
+        <v>2</v>
+      </c>
+      <c r="G18" s="30">
+        <v>3600001</v>
+      </c>
+      <c r="H18" s="30">
+        <v>6400000</v>
+      </c>
+      <c r="I18" s="30">
+        <v>3</v>
+      </c>
+      <c r="J18" s="27" t="s">
+        <v>333</v>
+      </c>
+      <c r="K18" s="30">
+        <v>1.6999383875082801</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" s="27" t="s">
+        <v>340</v>
+      </c>
+      <c r="B19" s="27" t="s">
+        <v>330</v>
+      </c>
+      <c r="C19" s="27" t="s">
+        <v>342</v>
+      </c>
+      <c r="D19" s="30">
+        <v>1.7911671981984099E-2</v>
+      </c>
+      <c r="E19" s="27" t="s">
+        <v>332</v>
+      </c>
+      <c r="F19" s="30">
+        <v>14</v>
+      </c>
+      <c r="G19" s="30">
+        <v>1</v>
+      </c>
+      <c r="H19" s="30">
+        <v>7200000</v>
+      </c>
+      <c r="I19" s="30">
+        <v>18</v>
+      </c>
+      <c r="J19" s="27" t="s">
+        <v>333</v>
+      </c>
+      <c r="K19" s="30">
+        <v>1.5048271978786401</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" s="27" t="s">
+        <v>340</v>
+      </c>
+      <c r="B20" s="27" t="s">
+        <v>330</v>
+      </c>
+      <c r="C20" s="27" t="s">
+        <v>343</v>
+      </c>
+      <c r="D20" s="30">
+        <v>1.51241786778318E-2</v>
+      </c>
+      <c r="E20" s="27" t="s">
+        <v>332</v>
+      </c>
+      <c r="F20" s="30">
+        <v>14</v>
+      </c>
+      <c r="G20" s="30">
+        <v>7700001</v>
+      </c>
+      <c r="H20" s="30">
+        <v>9300000</v>
+      </c>
+      <c r="I20" s="30">
+        <v>5</v>
+      </c>
+      <c r="J20" s="27" t="s">
+        <v>333</v>
+      </c>
+      <c r="K20" s="30">
+        <v>2.0022560687745199</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" s="27" t="s">
+        <v>340</v>
+      </c>
+      <c r="B21" s="27" t="s">
+        <v>330</v>
+      </c>
+      <c r="C21" s="27" t="s">
+        <v>337</v>
+      </c>
+      <c r="D21" s="30">
+        <v>2.3649794230963899E-2</v>
+      </c>
+      <c r="E21" s="27" t="s">
+        <v>332</v>
+      </c>
+      <c r="F21" s="30">
+        <v>19</v>
+      </c>
+      <c r="G21" s="30">
+        <v>1</v>
+      </c>
+      <c r="H21" s="30">
+        <v>4500000</v>
+      </c>
+      <c r="I21" s="30">
+        <v>10</v>
+      </c>
+      <c r="J21" s="27" t="s">
+        <v>333</v>
+      </c>
+      <c r="K21" s="30">
+        <v>2.6473090541081299</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{593EF387-F7E6-0247-A150-AB9C2E52D1D1}">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.1640625" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>318</v>
+      </c>
+      <c r="B1" t="s">
+        <v>323</v>
+      </c>
+      <c r="C1" t="s">
+        <v>344</v>
+      </c>
+      <c r="D1" t="s">
+        <v>345</v>
+      </c>
+      <c r="E1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>347</v>
+      </c>
+      <c r="B2">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>348</v>
+      </c>
+      <c r="D2">
+        <v>2.9700000000000001E-2</v>
+      </c>
+      <c r="E2" s="4">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>347</v>
+      </c>
+      <c r="B3">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>349</v>
+      </c>
+      <c r="D3">
+        <v>2.2200000000000001E-2</v>
+      </c>
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>347</v>
+      </c>
+      <c r="B4">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>350</v>
+      </c>
+      <c r="D4">
+        <v>4.1599999999999998E-2</v>
+      </c>
+      <c r="E4" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
